--- a/ctblenderbot.xlsx
+++ b/ctblenderbot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/QnAdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A448E-B54C-AD42-8294-05934D912FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C36DABC-A0AC-3D4E-802A-3B95F2146A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="460" windowWidth="27640" windowHeight="15780" xr2:uid="{46B209FB-6DA2-AA4D-A0BB-58CABD0DB0E1}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15780" xr2:uid="{46B209FB-6DA2-AA4D-A0BB-58CABD0DB0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -86,7 +86,13 @@
     <t>who is CEO?</t>
   </si>
   <si>
-    <t>Where is clevertar?</t>
+    <t xml:space="preserve">Where is clevertar?
+</t>
+  </si>
+  <si>
+    <t>Level 9, 144 North Tce
+Adelaide, SA, Australia
+Ground Floor, 3 Spring St Sydney, NSW, Australia</t>
   </si>
 </sst>
 </file>
@@ -443,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2549D6B-4591-4449-A57E-1D1A5F59B8E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,12 +523,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ctblenderbot.xlsx
+++ b/ctblenderbot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/QnAdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C36DABC-A0AC-3D4E-802A-3B95F2146A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE7B5E6-B6A8-1D46-82B5-3323CABE1782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15780" xr2:uid="{46B209FB-6DA2-AA4D-A0BB-58CABD0DB0E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -47,9 +47,6 @@
   <si>
     <t>Clevertar is a trusted partner and platform. Our success shows that building a great chatbot UX relies on development skill combined with communication science, data analytics, and subject matter expertise.
 With Clevertar’s AI-powered platform, our content and technical development experts work together with our customers to build chatbots that work.</t>
-  </si>
-  <si>
-    <t>what is the advantages of clevertar?</t>
   </si>
   <si>
     <t xml:space="preserve">How does clevertar help me? </t>
@@ -83,26 +80,45 @@
 “Clevertar’s technology fundamentally changes the customer experience for the better.” </t>
   </si>
   <si>
-    <t>who is CEO?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Where is clevertar?
 </t>
   </si>
   <si>
     <t>Level 9, 144 North Tce
-Adelaide, SA, Australia
-Ground Floor, 3 Spring St Sydney, NSW, Australia</t>
+Adelaide, SA, Australia</t>
+  </si>
+  <si>
+    <t>With Clevertar’s AI-powered platform, our content and technical development experts work together with our customers to build chatbots that work.</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>info@clevertar.com</t>
+  </si>
+  <si>
+    <t>Why I need a chatbot? How dose a chatbot help me?</t>
+  </si>
+  <si>
+    <t>A cahtbot can help you stop wasted ad-spend, handle more customer enquiries, extend your current digital assets and give your members a companion.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,16 +141,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,13 +470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2549D6B-4591-4449-A57E-1D1A5F59B8E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,63 +496,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="372" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00CD6C18-E29B-E740-AE71-6ACB9DB16F95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>